--- a/画面設計/【画面設計】15_直近で閲覧した料理一覧画面.xlsx
+++ b/画面設計/【画面設計】15_直近で閲覧した料理一覧画面.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Eu6FIp18jvAb1da+S+og0+7IiDOwOsPCoClBB2xqb5I="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ctG9Jn/b/yzzyA50GZBfA1nTOnyfm5/fA3pok49SzOs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -75,6 +75,11 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>サイドメニュー（01_メニュー画面）の「時計マーク」から呼ばれる画面。
+ログインユーザに紐づく、直近1日分の履歴のレシピを表示させる。
+行をクリックすることで次画面（04_レシピ表示画面（HTML)）へ遷移する。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -469,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2985,7 +2990,9 @@
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -3013,13 +3020,15 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="B30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -3041,13 +3050,8 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -3069,13 +3073,13 @@
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3125,6 +3129,9 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3152,9 +3159,15 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3180,11 +3193,9 @@
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -3210,13 +3221,13 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -3238,8 +3249,13 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -3261,13 +3277,13 @@
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -3289,7 +3305,9 @@
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -3317,11 +3335,13 @@
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
-        <v>19</v>
+      <c r="B41" s="40" t="s">
+        <v>25</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="21"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3345,17 +3365,11 @@
       <c r="Y41" s="6"/>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" ht="16.5" customHeight="1">
+    <row r="42" ht="33.75" customHeight="1">
       <c r="A42" s="6"/>
-      <c r="B42" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3379,11 +3393,11 @@
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" ht="16.5" customHeight="1">
+    <row r="43" ht="62.25" customHeight="1">
       <c r="A43" s="6"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -3407,11 +3421,11 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" ht="16.5" customHeight="1">
+    <row r="44" ht="33.75" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="44"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3435,11 +3449,11 @@
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" ht="16.5" customHeight="1">
+    <row r="45" ht="33.75" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -3463,11 +3477,11 @@
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" ht="16.5" customHeight="1">
+    <row r="46" ht="33.75" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3493,9 +3507,7 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3523,16 +3535,16 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="40" t="s">
-        <v>24</v>
+      <c r="B48" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="C48" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="21"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3553,14 +3565,18 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" ht="33.75" customHeight="1">
+    <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="21"/>
+      <c r="B49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -3581,18 +3597,34 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" ht="62.25" customHeight="1">
+    <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="9"/>
+      <c r="B50" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
+      <c r="G50" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>32</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3609,18 +3641,18 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="33.75" customHeight="1">
+    <row r="51" ht="109.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="21"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3637,11 +3669,11 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="33.75" customHeight="1">
+    <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="9"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -3665,242 +3697,250 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" ht="33.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+    <row r="53" ht="16.5" customHeight="1">
+      <c r="A53" s="25"/>
+      <c r="B53" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="40" t="s">
+      <c r="A54" s="59"/>
+      <c r="B54" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="C54" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="40" t="s">
+      <c r="D54" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="E54" s="25"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="I57" s="40" t="s">
-        <v>21</v>
+      <c r="H54" s="60" t="s">
+        <v>34</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="I54" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="40" t="s">
+      <c r="J54" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c r="A55" s="59"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+    </row>
+    <row r="56" ht="27.75" customHeight="1">
+      <c r="A56" s="59"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c r="A57" s="59"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+    </row>
+    <row r="58" ht="24.0" customHeight="1">
+      <c r="A58" s="59"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+    </row>
+    <row r="59" ht="36.75" customHeight="1">
+      <c r="A59" s="25"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="59"/>
+      <c r="B60" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-    </row>
-    <row r="58" ht="109.5" customHeight="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="58" t="s">
+      <c r="D60" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="58" t="s">
-        <v>34</v>
+      <c r="I60" s="60" t="s">
+        <v>22</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
+      <c r="J60" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="60" t="s">
+        <v>32</v>
+      </c>
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
@@ -3917,34 +3957,18 @@
       <c r="Y60" s="25"/>
       <c r="Z60" s="25"/>
     </row>
-    <row r="61" ht="16.5" customHeight="1">
+    <row r="61" ht="35.25" customHeight="1">
       <c r="A61" s="59"/>
-      <c r="B61" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="25"/>
       <c r="F61" s="59"/>
-      <c r="G61" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
@@ -3962,17 +3986,17 @@
       <c r="Z61" s="25"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="25"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
@@ -3989,18 +4013,22 @@
       <c r="Y62" s="25"/>
       <c r="Z62" s="25"/>
     </row>
-    <row r="63" ht="27.75" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
+    <row r="63" ht="21.0" customHeight="1">
+      <c r="A63" s="25"/>
+      <c r="B63" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="25"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
       <c r="N63" s="25"/>
@@ -4019,16 +4047,32 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="59"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
+      <c r="B64" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>32</v>
+      </c>
       <c r="E64" s="25"/>
       <c r="F64" s="59"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
+      <c r="G64" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="60" t="s">
+        <v>32</v>
+      </c>
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
@@ -4045,18 +4089,18 @@
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
     </row>
-    <row r="65" ht="24.0" customHeight="1">
+    <row r="65" ht="48.75" customHeight="1">
       <c r="A65" s="59"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="62"/>
-      <c r="D65" s="44"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="25"/>
       <c r="F65" s="59"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
@@ -4073,18 +4117,18 @@
       <c r="Y65" s="25"/>
       <c r="Z65" s="25"/>
     </row>
-    <row r="66" ht="36.75" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" s="59"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
@@ -4101,34 +4145,18 @@
       <c r="Y66" s="25"/>
       <c r="Z66" s="25"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
+    <row r="67" ht="26.25" customHeight="1">
       <c r="A67" s="59"/>
-      <c r="B67" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="25"/>
       <c r="F67" s="59"/>
-      <c r="G67" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
@@ -4145,11 +4173,11 @@
       <c r="Y67" s="25"/>
       <c r="Z67" s="25"/>
     </row>
-    <row r="68" ht="35.25" customHeight="1">
+    <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="59"/>
-      <c r="B68" s="62"/>
+      <c r="B68" s="61"/>
       <c r="C68" s="62"/>
-      <c r="D68" s="65"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="25"/>
       <c r="F68" s="59"/>
       <c r="G68" s="63"/>
@@ -4173,18 +4201,18 @@
       <c r="Y68" s="25"/>
       <c r="Z68" s="25"/>
     </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
+    <row r="69" ht="32.25" customHeight="1">
+      <c r="A69" s="59"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
@@ -4201,22 +4229,18 @@
       <c r="Y69" s="25"/>
       <c r="Z69" s="25"/>
     </row>
-    <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
+    <row r="70" ht="21.75" customHeight="1">
+      <c r="A70" s="59"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
       <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
@@ -4233,34 +4257,18 @@
       <c r="Y70" s="25"/>
       <c r="Z70" s="25"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" ht="35.25" customHeight="1">
       <c r="A71" s="59"/>
-      <c r="B71" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="B71" s="62"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="25"/>
       <c r="F71" s="59"/>
-      <c r="G71" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="H71" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="I71" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="60" t="s">
-        <v>31</v>
-      </c>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
@@ -4277,11 +4285,11 @@
       <c r="Y71" s="25"/>
       <c r="Z71" s="25"/>
     </row>
-    <row r="72" ht="48.75" customHeight="1">
+    <row r="72" ht="21.75" customHeight="1">
       <c r="A72" s="59"/>
-      <c r="B72" s="48"/>
+      <c r="B72" s="61"/>
       <c r="C72" s="62"/>
-      <c r="D72" s="65"/>
+      <c r="D72" s="62"/>
       <c r="E72" s="25"/>
       <c r="F72" s="59"/>
       <c r="G72" s="63"/>
@@ -4305,18 +4313,18 @@
       <c r="Y72" s="25"/>
       <c r="Z72" s="25"/>
     </row>
-    <row r="73" ht="18.75" customHeight="1">
+    <row r="73" ht="27.75" customHeight="1">
       <c r="A73" s="59"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="25"/>
       <c r="F73" s="59"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
-      <c r="I73" s="63"/>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
@@ -4333,18 +4341,18 @@
       <c r="Y73" s="25"/>
       <c r="Z73" s="25"/>
     </row>
-    <row r="74" ht="26.25" customHeight="1">
+    <row r="74" ht="21.75" customHeight="1">
       <c r="A74" s="59"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="65"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="25"/>
       <c r="F74" s="59"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="63"/>
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
@@ -4361,18 +4369,18 @@
       <c r="Y74" s="25"/>
       <c r="Z74" s="25"/>
     </row>
-    <row r="75" ht="19.5" customHeight="1">
+    <row r="75" ht="27.75" customHeight="1">
       <c r="A75" s="59"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="25"/>
       <c r="F75" s="59"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
@@ -4389,201 +4397,201 @@
       <c r="Y75" s="25"/>
       <c r="Z75" s="25"/>
     </row>
-    <row r="76" ht="32.25" customHeight="1">
-      <c r="A76" s="59"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="62"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="25"/>
-      <c r="S76" s="25"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="25"/>
-      <c r="V76" s="25"/>
-      <c r="W76" s="25"/>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="25"/>
-    </row>
-    <row r="77" ht="21.75" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="25"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="25"/>
-      <c r="V77" s="25"/>
-      <c r="W77" s="25"/>
-      <c r="X77" s="25"/>
-      <c r="Y77" s="25"/>
-      <c r="Z77" s="25"/>
-    </row>
-    <row r="78" ht="35.25" customHeight="1">
-      <c r="A78" s="59"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
-      <c r="I78" s="62"/>
-      <c r="J78" s="62"/>
-      <c r="K78" s="62"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="25"/>
-      <c r="V78" s="25"/>
-      <c r="W78" s="25"/>
-      <c r="X78" s="25"/>
-      <c r="Y78" s="25"/>
-      <c r="Z78" s="25"/>
-    </row>
-    <row r="79" ht="21.75" customHeight="1">
-      <c r="A79" s="59"/>
-      <c r="B79" s="61"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="25"/>
-      <c r="V79" s="25"/>
-      <c r="W79" s="25"/>
-      <c r="X79" s="25"/>
-      <c r="Y79" s="25"/>
-      <c r="Z79" s="25"/>
-    </row>
-    <row r="80" ht="27.75" customHeight="1">
-      <c r="A80" s="59"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
-      <c r="K80" s="62"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
-      <c r="S80" s="25"/>
-      <c r="T80" s="25"/>
-      <c r="U80" s="25"/>
-      <c r="V80" s="25"/>
-      <c r="W80" s="25"/>
-      <c r="X80" s="25"/>
-      <c r="Y80" s="25"/>
-      <c r="Z80" s="25"/>
-    </row>
-    <row r="81" ht="21.75" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="25"/>
-      <c r="V81" s="25"/>
-      <c r="W81" s="25"/>
-      <c r="X81" s="25"/>
-      <c r="Y81" s="25"/>
-      <c r="Z81" s="25"/>
-    </row>
-    <row r="82" ht="27.75" customHeight="1">
-      <c r="A82" s="59"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="71"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
-      <c r="K82" s="70"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
-      <c r="T82" s="25"/>
-      <c r="U82" s="25"/>
-      <c r="V82" s="25"/>
-      <c r="W82" s="25"/>
-      <c r="X82" s="25"/>
-      <c r="Y82" s="25"/>
-      <c r="Z82" s="25"/>
+    <row r="76" ht="16.5" customHeight="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
@@ -29869,213 +29877,17 @@
       <c r="Y985" s="6"/>
       <c r="Z985" s="6"/>
     </row>
-    <row r="986" ht="16.5" customHeight="1">
-      <c r="A986" s="6"/>
-      <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
-      <c r="D986" s="6"/>
-      <c r="E986" s="6"/>
-      <c r="F986" s="6"/>
-      <c r="G986" s="6"/>
-      <c r="H986" s="6"/>
-      <c r="I986" s="6"/>
-      <c r="J986" s="6"/>
-      <c r="K986" s="6"/>
-      <c r="L986" s="6"/>
-      <c r="M986" s="6"/>
-      <c r="N986" s="6"/>
-      <c r="O986" s="6"/>
-      <c r="P986" s="6"/>
-      <c r="Q986" s="6"/>
-      <c r="R986" s="6"/>
-      <c r="S986" s="6"/>
-      <c r="T986" s="6"/>
-      <c r="U986" s="6"/>
-      <c r="V986" s="6"/>
-      <c r="W986" s="6"/>
-      <c r="X986" s="6"/>
-      <c r="Y986" s="6"/>
-      <c r="Z986" s="6"/>
-    </row>
-    <row r="987" ht="16.5" customHeight="1">
-      <c r="A987" s="6"/>
-      <c r="B987" s="6"/>
-      <c r="C987" s="6"/>
-      <c r="D987" s="6"/>
-      <c r="E987" s="6"/>
-      <c r="F987" s="6"/>
-      <c r="G987" s="6"/>
-      <c r="H987" s="6"/>
-      <c r="I987" s="6"/>
-      <c r="J987" s="6"/>
-      <c r="K987" s="6"/>
-      <c r="L987" s="6"/>
-      <c r="M987" s="6"/>
-      <c r="N987" s="6"/>
-      <c r="O987" s="6"/>
-      <c r="P987" s="6"/>
-      <c r="Q987" s="6"/>
-      <c r="R987" s="6"/>
-      <c r="S987" s="6"/>
-      <c r="T987" s="6"/>
-      <c r="U987" s="6"/>
-      <c r="V987" s="6"/>
-      <c r="W987" s="6"/>
-      <c r="X987" s="6"/>
-      <c r="Y987" s="6"/>
-      <c r="Z987" s="6"/>
-    </row>
-    <row r="988" ht="16.5" customHeight="1">
-      <c r="A988" s="6"/>
-      <c r="B988" s="6"/>
-      <c r="C988" s="6"/>
-      <c r="D988" s="6"/>
-      <c r="E988" s="6"/>
-      <c r="F988" s="6"/>
-      <c r="G988" s="6"/>
-      <c r="H988" s="6"/>
-      <c r="I988" s="6"/>
-      <c r="J988" s="6"/>
-      <c r="K988" s="6"/>
-      <c r="L988" s="6"/>
-      <c r="M988" s="6"/>
-      <c r="N988" s="6"/>
-      <c r="O988" s="6"/>
-      <c r="P988" s="6"/>
-      <c r="Q988" s="6"/>
-      <c r="R988" s="6"/>
-      <c r="S988" s="6"/>
-      <c r="T988" s="6"/>
-      <c r="U988" s="6"/>
-      <c r="V988" s="6"/>
-      <c r="W988" s="6"/>
-      <c r="X988" s="6"/>
-      <c r="Y988" s="6"/>
-      <c r="Z988" s="6"/>
-    </row>
-    <row r="989" ht="16.5" customHeight="1">
-      <c r="A989" s="6"/>
-      <c r="B989" s="6"/>
-      <c r="C989" s="6"/>
-      <c r="D989" s="6"/>
-      <c r="E989" s="6"/>
-      <c r="F989" s="6"/>
-      <c r="G989" s="6"/>
-      <c r="H989" s="6"/>
-      <c r="I989" s="6"/>
-      <c r="J989" s="6"/>
-      <c r="K989" s="6"/>
-      <c r="L989" s="6"/>
-      <c r="M989" s="6"/>
-      <c r="N989" s="6"/>
-      <c r="O989" s="6"/>
-      <c r="P989" s="6"/>
-      <c r="Q989" s="6"/>
-      <c r="R989" s="6"/>
-      <c r="S989" s="6"/>
-      <c r="T989" s="6"/>
-      <c r="U989" s="6"/>
-      <c r="V989" s="6"/>
-      <c r="W989" s="6"/>
-      <c r="X989" s="6"/>
-      <c r="Y989" s="6"/>
-      <c r="Z989" s="6"/>
-    </row>
-    <row r="990" ht="16.5" customHeight="1">
-      <c r="A990" s="6"/>
-      <c r="B990" s="6"/>
-      <c r="C990" s="6"/>
-      <c r="D990" s="6"/>
-      <c r="E990" s="6"/>
-      <c r="F990" s="6"/>
-      <c r="G990" s="6"/>
-      <c r="H990" s="6"/>
-      <c r="I990" s="6"/>
-      <c r="J990" s="6"/>
-      <c r="K990" s="6"/>
-      <c r="L990" s="6"/>
-      <c r="M990" s="6"/>
-      <c r="N990" s="6"/>
-      <c r="O990" s="6"/>
-      <c r="P990" s="6"/>
-      <c r="Q990" s="6"/>
-      <c r="R990" s="6"/>
-      <c r="S990" s="6"/>
-      <c r="T990" s="6"/>
-      <c r="U990" s="6"/>
-      <c r="V990" s="6"/>
-      <c r="W990" s="6"/>
-      <c r="X990" s="6"/>
-      <c r="Y990" s="6"/>
-      <c r="Z990" s="6"/>
-    </row>
-    <row r="991" ht="16.5" customHeight="1">
-      <c r="A991" s="6"/>
-      <c r="B991" s="6"/>
-      <c r="C991" s="6"/>
-      <c r="D991" s="6"/>
-      <c r="E991" s="6"/>
-      <c r="F991" s="6"/>
-      <c r="G991" s="6"/>
-      <c r="H991" s="6"/>
-      <c r="I991" s="6"/>
-      <c r="J991" s="6"/>
-      <c r="K991" s="6"/>
-      <c r="L991" s="6"/>
-      <c r="M991" s="6"/>
-      <c r="N991" s="6"/>
-      <c r="O991" s="6"/>
-      <c r="P991" s="6"/>
-      <c r="Q991" s="6"/>
-      <c r="R991" s="6"/>
-      <c r="S991" s="6"/>
-      <c r="T991" s="6"/>
-      <c r="U991" s="6"/>
-      <c r="V991" s="6"/>
-      <c r="W991" s="6"/>
-      <c r="X991" s="6"/>
-      <c r="Y991" s="6"/>
-      <c r="Z991" s="6"/>
-    </row>
-    <row r="992" ht="16.5" customHeight="1">
-      <c r="A992" s="6"/>
-      <c r="B992" s="6"/>
-      <c r="C992" s="6"/>
-      <c r="D992" s="6"/>
-      <c r="E992" s="6"/>
-      <c r="F992" s="6"/>
-      <c r="G992" s="6"/>
-      <c r="H992" s="6"/>
-      <c r="I992" s="6"/>
-      <c r="J992" s="6"/>
-      <c r="K992" s="6"/>
-      <c r="L992" s="6"/>
-      <c r="M992" s="6"/>
-      <c r="N992" s="6"/>
-      <c r="O992" s="6"/>
-      <c r="P992" s="6"/>
-      <c r="Q992" s="6"/>
-      <c r="R992" s="6"/>
-      <c r="S992" s="6"/>
-      <c r="T992" s="6"/>
-      <c r="U992" s="6"/>
-      <c r="V992" s="6"/>
-      <c r="W992" s="6"/>
-      <c r="X992" s="6"/>
-      <c r="Y992" s="6"/>
-      <c r="Z992" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B37:H39"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B30:H32"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30191,7 +30003,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="73"/>
       <c r="B4" s="73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -30219,10 +30031,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="73"/>
